--- a/database/relatorio/PE 90004-2024/MF_DE_ALMEIDA_&_CIA_LTDA/relacao_itens.xlsx
+++ b/database/relatorio/PE 90004-2024/MF_DE_ALMEIDA_&_CIA_LTDA/relacao_itens.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,62 +446,96 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>Descrição Detalhada: Capacidade de até 3 muflas de micro-ondas ou convencional (consultar - pode variar de acordo com o modelo e tamanho das muflas).* Também apropriada para muflas parciais. * dimensões do equipamento (a x l x c): 34 x 20 x 20 cm. * dimensões da embalagem (a x l x c): 42 x 21 x 27 cm. * peso líquido: 10,850 kg. * preso bruto: 11,302 kg. * estrutura: alumínio fundido com pintura eletrostática. * manômetro: para controle de pressão.</t>
+          <t>Capacidade de até 3 muflas de micro-ondas ou convencional (consultar - pode variar de acordo com o modelo e tamanho das muflas).* Também apropriada para muflas parciais. * dimensões do equipamento (a x l x c): 34 x 20 x 20 cm. * dimensões da embalagem (a x l x c): 42 x 21 x 27 cm. * peso líquido: 10,850 kg. * preso bruto: 11,302 kg. * estrutura: alumínio fundido com pintura eletrostática. * manômetro: para controle de pressão.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>Quantidade: 2.0</t>
+          <t>UF: Unidade</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>Valor Unitário: 2050.0</t>
+          <t>Marca:  PROTECNI</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>Valor Total: 4100.0</t>
+          <t>Modelo:  PROTECNI</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="inlineStr">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>Quantidade: 2</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>Valor Unitário: R$ 2.050,00</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>Valor Total: R$ 4.100,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
         <is>
           <t>Item: 123 - CORTADOR GESSO (479951)</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="inlineStr">
-        <is>
-          <t>Descrição Detalhada: Recortador de palato a seco e troquelizador: características técnicas: sistema de pinos paralelos permite o uso de discos diamantados próprios para uso em gesso individualizando os troquéis sem perigo de danificar as margens do preparo dispensando o uso das obsoletas serras dos troquéis. Para guias personalizados para troquéis em prótese metal free, enlays, onlays, facetas laminadas e permite fazer um planejamento após o modelo vazado, fabricado nas duas voltagens 127v~ ou 220v e ou bivolt. Troca de broca por pino e chave; posicionador óptico e a base de trabalho móvel garantem o alinhamento das perfurações, possui gaveta móvel do filtro de pó para limpeza. Contém: mandril de inox para brocas de 1,8 – 3mm ø mesa anodizada para maior proteção contra o gesso; pintura eletrostática para maior proteção da carenagem contra o gesso; 450 watts de potência; 8.000 rpm; ótimo sistema de ventilação e aspiração. Acompanha 1 broca para perfuração e 1 broca cônica para aparar o pálato. Recorta, aspira e ensaca o gesso residual.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>Quantidade: 2.0</t>
-        </is>
-      </c>
-      <c r="B6" s="2" t="inlineStr">
-        <is>
-          <t>Valor Unitário: 1665.0</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>Valor Total: 3330.0</t>
+          <t>Recortador de palato a seco e troquelizador: características técnicas: sistema de pinos paralelos permite o uso de discos diamantados próprios para uso em gesso individualizando os troquéis sem perigo de danificar as margens do preparo dispensando o uso das obsoletas serras dos troquéis. Para guias personalizados para troquéis em prótese metal free, enlays, onlays, facetas laminadas e permite fazer um planejamento após o modelo vazado, fabricado nas duas voltagens 127v~ ou 220v e ou bivolt. Troca de broca por pino e chave; posicionador óptico e a base de trabalho móvel garantem o alinhamento das perfurações, possui gaveta móvel do filtro de pó para limpeza. Contém: mandril de inox para brocas de 1,8 – 3mm ø mesa anodizada para maior proteção contra o gesso; pintura eletrostática para maior proteção da carenagem contra o gesso; 450 watts de potência; 8.000 rpm; ótimo sistema de ventilação e aspiração. Acompanha 1 broca para perfuração e 1 broca cônica para aparar o pálato. Recorta, aspira e ensaca o gesso residual.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>UF: Unidade</t>
+        </is>
+      </c>
+      <c r="B7" s="2" t="inlineStr">
+        <is>
+          <t>Marca:  BELTEC PAV 0049</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>Modelo:  BELTEC PAV 0049</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="inlineStr">
+        <is>
+          <t>Quantidade: 2</t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>Valor Unitário: R$ 1.665,00</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>Valor Total: R$ 3.330,00</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A6:C6"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A5:C5"/>
   </mergeCells>

--- a/database/relatorio/PE 90004-2024/MF_DE_ALMEIDA_&_CIA_LTDA/relacao_itens.xlsx
+++ b/database/relatorio/PE 90004-2024/MF_DE_ALMEIDA_&_CIA_LTDA/relacao_itens.xlsx
@@ -439,7 +439,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Item: 121 - PRENSA HIDRÁULICA ELÉTRICA (385363)</t>
+          <t>Item 121 - PRENSA HIDRÁULICA ELÉTRICA (385363)</t>
         </is>
       </c>
     </row>
@@ -487,7 +487,7 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Item: 123 - CORTADOR GESSO (479951)</t>
+          <t>Item 123 - CORTADOR GESSO (479951)</t>
         </is>
       </c>
     </row>
